--- a/latex/slike/grafi.xlsx
+++ b/latex/slike/grafi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\diploma\latex\slike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F8A59168-A098-4DDA-8F1C-A34ACD8B5BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F01627-E712-49BA-8954-D490186B8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F817ECD-9FA5-4066-AFD4-21D715B72956}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
   <si>
     <t>Starost</t>
   </si>
@@ -55,29 +55,26 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>ne</t>
-  </si>
-  <si>
-    <t>task_id</t>
-  </si>
-  <si>
-    <t>difficulty</t>
-  </si>
-  <si>
     <t>izkusnje</t>
   </si>
   <si>
     <t>stevec</t>
+  </si>
+  <si>
+    <t>starost</t>
+  </si>
+  <si>
+    <t>solo_prog</t>
+  </si>
+  <si>
+    <t>ocena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,7 +699,7 @@
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln w="3175">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -719,11 +716,8 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="28575">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -807,6 +801,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število let učenja programiranja</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -872,6 +921,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število učencev</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -904,6 +1009,1317 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="492251200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>starost</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafi!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stevec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>grafi!$A$45:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafi!$B$45:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE75-4821-AA91-166116DB3BEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1418056415"/>
+        <c:axId val="1418054015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1418056415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>starost u</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>čencev</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418054015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1418054015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število učencev</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418056415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>Programiranje izven tečajev</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafi!$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stevec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>grafi!$A$66:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafi!$B$66:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E41F-4CB2-A38C-464F72642126}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1418339343"/>
+        <c:axId val="1418335983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1418339343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>pogostost programiranja izven tečajev</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418335983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1418335983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število učencev</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418339343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>Ocena programiranja</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafi!$B$87</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stevec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>grafi!$A$88:$A$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafi!$B$88:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0059-477E-8965-7FE7D8ABA248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1421446767"/>
+        <c:axId val="1421445327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1421446767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>lastna</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI" baseline="0"/>
+                  <a:t> ocena</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421445327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1421445327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>Število</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI" baseline="0"/>
+                  <a:t> učencev</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421446767"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -992,7 +2408,1636 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1528,6 +4573,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>498230</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205153</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>104042</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88153E13-9870-1C70-CCF5-E0F68E3296EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>181708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>67408</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05EBE0E1-03FB-CA92-B076-3751BDDCDC77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>329711</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>159727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>36634</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>45427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF362CBE-54B6-A5CD-F3EF-81EADD4ADA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1853,15 +5006,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B8ABF9-FD1D-4F55-A508-7DE4571818BC}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +5034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1913,7 +5066,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -1951,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -1989,7 +5142,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -2027,7 +5180,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -2065,7 +5218,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -2103,15 +5256,15 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2119,7 +5272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2127,7 +5280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2141,7 +5294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2161,7 +5314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2181,7 +5334,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="17" spans="6:13">
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J17">
         <v>2</v>
       </c>
@@ -2195,7 +5348,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J18">
         <v>3</v>
       </c>
@@ -2209,7 +5362,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>10</v>
       </c>
@@ -2223,7 +5376,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="24" spans="6:13">
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>6</v>
       </c>
@@ -2231,7 +5384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="6:13">
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>9</v>
       </c>
@@ -2245,7 +5398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="6:13">
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>1</v>
       </c>
@@ -2259,7 +5412,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="27" spans="6:13">
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>2</v>
       </c>
@@ -2273,7 +5426,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="28" spans="6:13">
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>3</v>
       </c>
@@ -2287,7 +5440,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="29" spans="6:13">
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>10</v>
       </c>
@@ -2301,219 +5454,156 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="44" spans="9:12">
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="9:12">
-      <c r="I45" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
         <v>9</v>
       </c>
-      <c r="J45" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
         <v>11</v>
       </c>
-      <c r="K45" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="46" spans="9:12">
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>2.8</v>
-      </c>
-      <c r="L46">
-        <v>2.8</v>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
       </c>
     </row>
-    <row r="47" spans="9:12">
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>3.3</v>
-      </c>
-      <c r="L47">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="48" spans="9:12">
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="K48">
-        <v>3.6</v>
-      </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12">
-      <c r="I49">
-        <v>4</v>
-      </c>
-      <c r="J49">
-        <v>3.7</v>
-      </c>
-      <c r="L49">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12">
-      <c r="I50">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>5</v>
       </c>
-      <c r="K50">
-        <v>2.8</v>
-      </c>
-      <c r="L50">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12">
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>6</v>
-      </c>
-      <c r="J51">
-        <v>4.5</v>
-      </c>
-      <c r="L51">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12">
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>2.8</v>
-      </c>
-      <c r="I52">
-        <v>7</v>
-      </c>
-      <c r="K52">
-        <v>2.7</v>
-      </c>
-      <c r="L52">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12">
-      <c r="B53">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>3.3</v>
-      </c>
-      <c r="I53">
+      <c r="B92">
         <v>8</v>
-      </c>
-      <c r="J53">
-        <v>4.2</v>
-      </c>
-      <c r="L53">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>3.6</v>
-      </c>
-      <c r="I54" t="s">
-        <v>10</v>
-      </c>
-      <c r="J54">
-        <v>15.7</v>
-      </c>
-      <c r="K54">
-        <v>11.9</v>
-      </c>
-      <c r="L54">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12">
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59">
-        <v>8</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59">
-        <v>4.2</v>
       </c>
     </row>
   </sheetData>

--- a/latex/slike/grafi.xlsx
+++ b/latex/slike/grafi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\diploma\latex\slike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F01627-E712-49BA-8954-D490186B8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E38E6-5E92-417E-803C-B858D6FF1BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F817ECD-9FA5-4066-AFD4-21D715B72956}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Starost</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>ocena</t>
+  </si>
+  <si>
+    <t>debug</t>
+  </si>
+  <si>
+    <t>ai</t>
   </si>
 </sst>
 </file>
@@ -2368,6 +2374,897 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>Ocena ra</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>z</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>hroščevanja</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sl-SI" baseline="0"/>
+              <a:t> kode</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafi!$B$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stevec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>grafi!$A$102:$A$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafi!$B$102:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1250-4AD7-980A-D1F8943D1CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="127898208"/>
+        <c:axId val="127905888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="127898208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>lastna ocena</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> razhro</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI" baseline="0"/>
+                  <a:t>ščevanja</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127905888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="127905888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>število učencev</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127898208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI"/>
+              <a:t>uporaba umetne inteligence pri programiranju</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>grafi!$B$111</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stevec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>grafi!$A$112:$A$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>grafi!$B$112:$B$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1F4-48F4-A16C-C5182A221D03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="210909696"/>
+        <c:axId val="210910176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="210909696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>pogostost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI" baseline="0"/>
+                  <a:t> uporabe umetne inteligence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210910176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210910176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sl-SI"/>
+                  <a:t>število</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sl-SI" baseline="0"/>
+                  <a:t> učencev</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210909696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2528,6 +3425,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -4038,6 +5015,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4681,6 +6664,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>40298</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>27841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355356</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104041</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E61FFA-6ABA-3422-55F6-87199A8A91F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490903</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>20514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>96714</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6241C35A-3702-1266-C2D2-4CBD0D4289F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5006,10 +7061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B8ABF9-FD1D-4F55-A508-7DE4571818BC}">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5606,6 +7661,102 @@
         <v>8</v>
       </c>
     </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
